--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="487">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1242,6 +1242,237 @@
   </si>
   <si>
     <t>김민지</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>01/03</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>ju0_park@naver.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>12/13</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>05/10</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>09/19</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>11/18</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>07/26</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>10/19</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>12/16</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
+  </si>
+  <si>
+    <t>12/25</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>0927</t>
+  </si>
+  <si>
+    <t>2468pp@naver.com</t>
+  </si>
+  <si>
+    <t>식품영양학과ㅣ</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>10/27</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>07/11</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>12/06</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>03/19</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>07/10</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>04/06</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1503,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -1428,25 +1659,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1528,9 +1745,6 @@
     <xf quotePrefix="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1589,7 +1803,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N118" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N146" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -6642,44 +6856,1192 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="24">
+      <c r="A118" s="16">
         <v>45622.90768989583</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="17">
         <v>2.0203802E7</v>
       </c>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="F118" s="26" t="s">
+      <c r="F118" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="G118" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J118" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="25" t="s">
+      <c r="G118" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L118" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N118" s="27" t="s">
+      <c r="L118" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N118" s="23" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="19">
+        <v>45622.96630211806</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="20">
+        <v>2.024523E7</v>
+      </c>
+      <c r="E119" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K119" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L119" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M119" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="16">
+        <v>45622.975617881944</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D120" s="17">
+        <v>2.0201007E7</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N120" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="19">
+        <v>45623.32586557871</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D121" s="20">
+        <v>2.019517E7</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G121" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L121" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N121" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="16">
+        <v>45623.39583256944</v>
+      </c>
+      <c r="B122" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D122" s="17">
+        <v>2.0182436E7</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G122" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M122" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="19">
+        <v>45623.401020833335</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" s="20">
+        <v>2.0243048E7</v>
+      </c>
+      <c r="E123" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L123" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N123" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="16">
+        <v>45623.415293171296</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="17">
+        <v>2.0243961E7</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J124" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K124" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N124" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="19">
+        <v>45623.420294375</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D125" s="20">
+        <v>2.0242428E7</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J125" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K125" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L125" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N125" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="16">
+        <v>45623.43081864584</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="17">
+        <v>2.0213839E7</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="F126" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M126" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="19">
+        <v>45623.44693824074</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" s="20">
+        <v>2.0245213E7</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L127" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M127" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="16">
+        <v>45623.456981689815</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="17">
+        <v>2.0193836E7</v>
+      </c>
+      <c r="E128" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="G128" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L128" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N128" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="19">
+        <v>45623.46535273148</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" s="20">
+        <v>2.024321E7</v>
+      </c>
+      <c r="E129" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K129" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L129" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M129" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="16">
+        <v>45623.47574570602</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D130" s="17">
+        <v>2.0192926E7</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G130" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L130" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M130" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="19">
+        <v>45623.5521465625</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D131" s="20">
+        <v>2.0243065E7</v>
+      </c>
+      <c r="E131" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="F131" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G131" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L131" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N131" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="16">
+        <v>45623.59637586806</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="17">
+        <v>2.0212418E7</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="F132" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J132" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M132" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="19">
+        <v>45623.62990034722</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="D133" s="20">
+        <v>2.0206623E7</v>
+      </c>
+      <c r="E133" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G133" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L133" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N133" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="16">
+        <v>45623.63614354166</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" s="17">
+        <v>2.023306E7</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="G134" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L134" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N134" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="19">
+        <v>45623.66132696759</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D135" s="20">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="F135" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G135" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L135" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M135" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="16">
+        <v>45623.69107826389</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" s="17">
+        <v>2.0192575E7</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G136" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M136" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="19">
+        <v>45623.70423665509</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137" s="20">
+        <v>2.0214143E7</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="F137" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G137" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L137" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="16">
+        <v>45623.71660636574</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" s="17">
+        <v>2.0242957E7</v>
+      </c>
+      <c r="E138" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="G138" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L138" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N138" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="19">
+        <v>45623.78672159722</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="20">
+        <v>2026215.0</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J139" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L139" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N139" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="16">
+        <v>45623.814267187496</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="17">
+        <v>2.0242201E7</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N140" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="19">
+        <v>45623.83889300926</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" s="20">
+        <v>2.0246639E7</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="F141" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K141" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L141" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N141" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="16">
+        <v>45623.88010599537</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" s="17">
+        <v>2.0246248E7</v>
+      </c>
+      <c r="E142" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L142" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N142" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="19">
+        <v>45623.889737627316</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D143" s="20">
+        <v>2.0246282E7</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="F143" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L143" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N143" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="16">
+        <v>45623.89440302084</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144" s="17">
+        <v>2.024623E7</v>
+      </c>
+      <c r="E144" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="G144" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="19">
+        <v>45623.90372394676</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D145" s="20">
+        <v>2.0246222E7</v>
+      </c>
+      <c r="E145" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="F145" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L145" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N145" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="24">
+        <v>45623.92593857639</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="C146" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D146" s="25">
+        <v>2.0212613E7</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="G146" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L146" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M146" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="612">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1473,6 +1473,381 @@
   </si>
   <si>
     <t>04/06</t>
+  </si>
+  <si>
+    <t>bagj11532@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>02/07</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>10/13</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>11/02</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>01/10</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>01/17</t>
+  </si>
+  <si>
+    <t>sunshade132@gmail.com</t>
+  </si>
+  <si>
+    <t>박기택</t>
+  </si>
+  <si>
+    <t>11/25</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>08/30</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>08/13</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>lucynam1010@gmail.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>09/26</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>07/22</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>12/08</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>09/05</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>03/09</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>02/23</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>07/14</t>
+  </si>
+  <si>
+    <t>il8v6u@naver.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>04/21</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>12/22</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>7/13</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>08/18</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>09/25</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>12/18</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>09/01</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>05/23</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>09/02</t>
+  </si>
+  <si>
+    <t>ginggim0904@gmail.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>09/04</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>01/09</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>08/26</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>05/26</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>05/30</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>07/28</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>10/08</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1878,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -1659,11 +2034,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1745,6 +2134,9 @@
     <xf quotePrefix="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1803,7 +2195,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N146" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N190" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -8004,44 +8396,1848 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="24">
+      <c r="A146" s="16">
         <v>45623.92593857639</v>
       </c>
-      <c r="B146" s="25" t="s">
+      <c r="B146" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C146" s="25" t="s">
+      <c r="C146" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D146" s="25">
+      <c r="D146" s="17">
         <v>2.0212613E7</v>
       </c>
-      <c r="E146" s="25" t="s">
+      <c r="E146" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="F146" s="26" t="s">
+      <c r="F146" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="G146" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I146" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K146" s="25" t="s">
+      <c r="G146" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L146" s="25" t="s">
+      <c r="L146" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M146" s="25" t="s">
+      <c r="M146" s="17" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="19">
+        <v>45623.971044247686</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147" s="20">
+        <v>2.024412E7</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="F147" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L147" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M147" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="16">
+        <v>45624.01148804398</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="17">
+        <v>2.0246225E7</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L148" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N148" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="19">
+        <v>45624.01378247685</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D149" s="20">
+        <v>2.0193644E7</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F149" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K149" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L149" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M149" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="16">
+        <v>45624.02983540509</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D150" s="17">
+        <v>2.0231205E7</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="F150" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L150" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N150" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="19">
+        <v>45624.046245011574</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="20">
+        <v>2.0243921E7</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="F151" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L151" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M151" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="16">
+        <v>45624.05776334491</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D152" s="17">
+        <v>2.0243938E7</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K152" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L152" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N152" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="19">
+        <v>45624.06491314815</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D153" s="20">
+        <v>2.024678E7</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="F153" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L153" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M153" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="16">
+        <v>45624.364776435184</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D154" s="17">
+        <v>2.0222526E7</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="F154" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L154" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M154" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="19">
+        <v>45624.38294173611</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D155" s="20">
+        <v>2.0242925E7</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="F155" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="G155" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L155" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M155" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="16">
+        <v>45624.38799524306</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D156" s="17">
+        <v>2.0246303E7</v>
+      </c>
+      <c r="E156" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K156" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L156" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N156" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="19">
+        <v>45624.38818421296</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D157" s="20">
+        <v>2.0242971E7</v>
+      </c>
+      <c r="E157" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="F157" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G157" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K157" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L157" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M157" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="16">
+        <v>45624.416936875</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158" s="17">
+        <v>2.0233716E7</v>
+      </c>
+      <c r="E158" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="G158" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K158" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L158" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M158" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="19">
+        <v>45624.50342376158</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D159" s="20">
+        <v>2.0241234E7</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="G159" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K159" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L159" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N159" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="16">
+        <v>45624.51696190972</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D160" s="17">
+        <v>2.0222367E7</v>
+      </c>
+      <c r="E160" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L160" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N160" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="19">
+        <v>45624.55200863426</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D161" s="20">
+        <v>2.0242347E7</v>
+      </c>
+      <c r="E161" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="G161" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K161" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L161" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M161" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="16">
+        <v>45624.55562101852</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D162" s="17">
+        <v>2.0243354E7</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="F162" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G162" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K162" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L162" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N162" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="19">
+        <v>45624.556302592595</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D163" s="20">
+        <v>2.0213609E7</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="G163" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K163" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L163" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N163" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="16">
+        <v>45624.563260243056</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D164" s="17">
+        <v>2.024385E7</v>
+      </c>
+      <c r="E164" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="G164" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K164" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M164" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="19">
+        <v>45624.56942503472</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C165" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D165" s="20">
+        <v>2.0243968E7</v>
+      </c>
+      <c r="E165" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="G165" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L165" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M165" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="16">
+        <v>45624.58993677083</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D166" s="17">
+        <v>2.0242582E7</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="F166" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K166" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L166" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M166" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="19">
+        <v>45624.5946569213</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D167" s="20">
+        <v>2.0243801E7</v>
+      </c>
+      <c r="E167" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="F167" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L167" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M167" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="16">
+        <v>45624.59693627315</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="17">
+        <v>2.0242724E7</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="G168" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I168" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K168" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L168" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M168" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="19">
+        <v>45624.60036648148</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C169" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D169" s="20">
+        <v>2.0242736E7</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="F169" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K169" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L169" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N169" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="16">
+        <v>45624.601031805556</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D170" s="17">
+        <v>2.0215158E7</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="G170" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H170" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K170" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L170" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N170" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="19">
+        <v>45624.612080694445</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D171" s="20">
+        <v>2.0242632E7</v>
+      </c>
+      <c r="E171" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="F171" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G171" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K171" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L171" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M171" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="16">
+        <v>45624.613634629626</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D172" s="17">
+        <v>2.0243933E7</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L172" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N172" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="19">
+        <v>45624.62301729167</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" s="20">
+        <v>2.0242314E7</v>
+      </c>
+      <c r="E173" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="F173" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="G173" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H173" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L173" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N173" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="16">
+        <v>45624.684557685185</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D174" s="17">
+        <v>2.024383E7</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="F174" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G174" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M174" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="19">
+        <v>45624.710781875</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175" s="20">
+        <v>2.024365E7</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="F175" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="G175" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I175" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L175" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M175" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="16">
+        <v>45624.716284594906</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D176" s="17">
+        <v>2.0241077E7</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="F176" s="17">
+        <v>1107.0</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H176" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I176" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J176" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L176" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M176" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="19">
+        <v>45624.72905030093</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" s="20">
+        <v>2.0241106E7</v>
+      </c>
+      <c r="E177" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F177" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G177" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I177" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K177" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N177" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="16">
+        <v>45624.7395671875</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D178" s="17">
+        <v>2.0194153E7</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="F178" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K178" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L178" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N178" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="19">
+        <v>45624.76553133102</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D179" s="20">
+        <v>2.023411E7</v>
+      </c>
+      <c r="E179" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="F179" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="G179" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H179" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K179" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L179" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M179" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="16">
+        <v>45624.7977365625</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D180" s="17">
+        <v>2.0227157E7</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="F180" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G180" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K180" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L180" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N180" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="19">
+        <v>45624.823992708334</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" s="20">
+        <v>2.0232512E7</v>
+      </c>
+      <c r="E181" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="F181" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="G181" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J181" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K181" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L181" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M181" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="16">
+        <v>45624.826361388885</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D182" s="17">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H182" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J182" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K182" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L182" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M182" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="19">
+        <v>45624.82708824074</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="D183" s="20">
+        <v>2.0213219E7</v>
+      </c>
+      <c r="E183" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="F183" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="G183" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K183" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L183" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M183" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="16">
+        <v>45624.84437663194</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" s="17">
+        <v>2.0192936E7</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F184" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G184" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I184" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J184" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L184" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M184" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="19">
+        <v>45624.87059222222</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="D185" s="20">
+        <v>2.0203425E7</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="G185" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H185" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J185" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L185" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M185" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="16">
+        <v>45624.90706054398</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D186" s="17">
+        <v>2.0207065E7</v>
+      </c>
+      <c r="E186" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="F186" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K186" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L186" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M186" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="19">
+        <v>45624.92662831019</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D187" s="20">
+        <v>2.0197118E7</v>
+      </c>
+      <c r="E187" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="F187" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="G187" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K187" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L187" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N187" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="16">
+        <v>45624.98363429398</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" s="17">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="F188" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I188" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J188" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K188" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L188" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M188" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="19">
+        <v>45624.98913457176</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D189" s="20">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="F189" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G189" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I189" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K189" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L189" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N189" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="24">
+        <v>45624.99138435185</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D190" s="25">
+        <v>2.023371E7</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="F190" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="G190" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L190" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N190" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="1073">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1848,6 +1848,1389 @@
   </si>
   <si>
     <t>10/08</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>08/12</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IOt</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>03/13</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>k1j40405@gmail.com</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>04/05</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>01/01</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>07/17</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>0616sdh@naver.com</t>
+  </si>
+  <si>
+    <t>신동현</t>
+  </si>
+  <si>
+    <t>06/16</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>11/01</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>03/02</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>01/04</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>08/16</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>ejsl5231@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>이유찬</t>
+  </si>
+  <si>
+    <t>05/08</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>12/20</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>04/20</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>06/13</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>12/07</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>10/07</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.cpm</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>02/25</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>05/09</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>11/28</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>12/09</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>02/18</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>11/19</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>mkjk1227@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>12/27</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>07/29</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.con</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>09/17</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>08/02</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>03/08</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>12/11</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠ㅑㅆ</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>2월20일</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>06/18</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>07/08</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>01/28</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>10/05</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>03/01</t>
+  </si>
+  <si>
+    <t>altigerlee@gmail.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>01/18</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>11/09</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>02/02</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>appmax1115@gmail.com</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>03/30</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>06/28</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>5월14일</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>08/04</t>
+  </si>
+  <si>
+    <t>pumo2928@gmail.com</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
+  </si>
+  <si>
+    <t>11/29</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>11/04</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>07/23</t>
+  </si>
+  <si>
+    <t>kylebusy@naver.com</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>08/03</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>05/24</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>10/03</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>9월23일</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>03/22</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>kmu2916@maver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>07/16</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>01/29</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>08/20</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>kyj57980@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>경영학</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>10/24</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>08/23</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>06/04</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융학부</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>02/26</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>wldus0859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>09/21</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>01/16</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>11/26</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>02/16</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>10월 3일</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t>미디이스쿨</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8월 23일 </t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>dbdud123456@gmail.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>3월 7일</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>12/14</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>01/22</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>02/21</t>
+  </si>
+  <si>
+    <t>jw010705@naver.com</t>
+  </si>
+  <si>
+    <t>유정우</t>
+  </si>
+  <si>
+    <t>07/05</t>
+  </si>
+  <si>
+    <t>play030205@naver.com</t>
+  </si>
+  <si>
+    <t>조민</t>
+  </si>
+  <si>
+    <t>02/05</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>20245161`</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>05/15</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>10/30</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>02/10</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">체육학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">최진호 </t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>07/30</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 데이터사이언스학부</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>scott1234698@gmail.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>mnnnmm22@naver.com</t>
+  </si>
+  <si>
+    <t>고현아</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>minsung5342@gmail.com</t>
+  </si>
+  <si>
+    <t>02/09</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>01/26</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>04/23</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>법</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@Naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>05/16</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>08/22</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>qkfdmltls@naver.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>02/06</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>07/25</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>동형원</t>
+  </si>
+  <si>
+    <t>10/23</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>03/04</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>02/12</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>10/22</t>
+  </si>
+  <si>
+    <t>oo3198@naver.com</t>
+  </si>
+  <si>
+    <t>심현진</t>
+  </si>
+  <si>
+    <t>8,15</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>08/29</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>10/29</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>s454s@naver.com</t>
+  </si>
+  <si>
+    <t>이동주</t>
+  </si>
+  <si>
+    <t>soyeong6832@gmail.com</t>
+  </si>
+  <si>
+    <t>지소영</t>
+  </si>
+  <si>
+    <t>01/14</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
   </si>
 </sst>
 </file>
@@ -2195,7 +3578,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N190" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N368" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -10200,43 +11583,7341 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="24">
+      <c r="A190" s="16">
         <v>45624.99138435185</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D190" s="25">
+      <c r="D190" s="17">
         <v>2.023371E7</v>
       </c>
-      <c r="E190" s="25" t="s">
+      <c r="E190" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="F190" s="26" t="s">
+      <c r="F190" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="G190" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H190" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I190" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J190" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K190" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L190" s="25" t="s">
+      <c r="G190" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K190" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L190" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N190" s="27" t="s">
+      <c r="N190" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="19">
+        <v>45625.04812658565</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D191" s="20">
+        <v>2.0242307E7</v>
+      </c>
+      <c r="E191" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="F191" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="G191" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J191" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L191" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N191" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="16">
+        <v>45625.04848722222</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D192" s="17">
+        <v>2.0205133E7</v>
+      </c>
+      <c r="E192" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="F192" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G192" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K192" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L192" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M192" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="19">
+        <v>45625.58002126157</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="C193" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D193" s="20">
+        <v>2.0214116E7</v>
+      </c>
+      <c r="E193" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="F193" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="G193" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H193" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K193" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L193" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M193" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="16">
+        <v>45625.624209166665</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D194" s="17">
+        <v>2.0212818E7</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="F194" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G194" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J194" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K194" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L194" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N194" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="19">
+        <v>45625.63174430556</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="C195" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D195" s="20">
+        <v>2.0213543E7</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="F195" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G195" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I195" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K195" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L195" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N195" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="16">
+        <v>45625.64798333333</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D196" s="17">
+        <v>2.0243408E7</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I196" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J196" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L196" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M196" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="19">
+        <v>45625.65911059028</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C197" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="20">
+        <v>2.02463E7</v>
+      </c>
+      <c r="E197" s="20" t="s">
+        <v>629</v>
+      </c>
+      <c r="F197" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G197" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K197" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L197" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M197" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="16">
+        <v>45625.66969097222</v>
+      </c>
+      <c r="B198" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" s="17">
+        <v>2.022296E7</v>
+      </c>
+      <c r="E198" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G198" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L198" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M198" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="19">
+        <v>45625.67959515046</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="C199" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D199" s="20">
+        <v>2.0205267E7</v>
+      </c>
+      <c r="E199" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F199" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="G199" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I199" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K199" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L199" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M199" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="16">
+        <v>45625.68908138889</v>
+      </c>
+      <c r="B200" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D200" s="17">
+        <v>2.024243E7</v>
+      </c>
+      <c r="E200" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="F200" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="G200" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K200" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L200" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M200" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="19">
+        <v>45625.708759699075</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="C201" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D201" s="20">
+        <v>2.0241207E7</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F201" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G201" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K201" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L201" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M201" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="16">
+        <v>45625.732546666666</v>
+      </c>
+      <c r="B202" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D202" s="17">
+        <v>2.020273E7</v>
+      </c>
+      <c r="E202" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="G202" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K202" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L202" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M202" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="19">
+        <v>45625.73470631945</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="C203" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D203" s="20">
+        <v>2.0231708E7</v>
+      </c>
+      <c r="E203" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="F203" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="G203" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I203" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L203" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M203" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="16">
+        <v>45625.77528795139</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D204" s="17">
+        <v>2.020524E7</v>
+      </c>
+      <c r="E204" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="F204" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="G204" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J204" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K204" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L204" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N204" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="19">
+        <v>45625.812813125</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="C205" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D205" s="20">
+        <v>2.0191226E7</v>
+      </c>
+      <c r="E205" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="F205" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="G205" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K205" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L205" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M205" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="16">
+        <v>45625.823810381946</v>
+      </c>
+      <c r="B206" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="D206" s="17">
+        <v>2.0205167E7</v>
+      </c>
+      <c r="E206" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="F206" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="G206" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K206" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L206" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N206" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="19">
+        <v>45625.8408100463</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="C207" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D207" s="20">
+        <v>2.0193305E7</v>
+      </c>
+      <c r="E207" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="F207" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="G207" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K207" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L207" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N207" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="16">
+        <v>45625.84864822916</v>
+      </c>
+      <c r="B208" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="D208" s="17">
+        <v>2.0215144E7</v>
+      </c>
+      <c r="E208" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G208" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K208" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L208" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M208" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="19">
+        <v>45625.851769201385</v>
+      </c>
+      <c r="B209" s="20" t="s">
+        <v>663</v>
+      </c>
+      <c r="C209" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="D209" s="20">
+        <v>2.0225223E7</v>
+      </c>
+      <c r="E209" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="F209" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="G209" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I209" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K209" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L209" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N209" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="16">
+        <v>45625.85879611111</v>
+      </c>
+      <c r="B210" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C210" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D210" s="17">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E210" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="F210" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="G210" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I210" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K210" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L210" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N210" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="19">
+        <v>45625.86403913195</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D211" s="20">
+        <v>2.0205165E7</v>
+      </c>
+      <c r="E211" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="F211" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="G211" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H211" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L211" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N211" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="16">
+        <v>45625.87878828704</v>
+      </c>
+      <c r="B212" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D212" s="17">
+        <v>2.0243813E7</v>
+      </c>
+      <c r="E212" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="F212" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="G212" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H212" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L212" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N212" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="19">
+        <v>45625.88943001158</v>
+      </c>
+      <c r="B213" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="C213" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="D213" s="20">
+        <v>2.024642E7</v>
+      </c>
+      <c r="E213" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="G213" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I213" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K213" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L213" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M213" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="16">
+        <v>45625.89117980324</v>
+      </c>
+      <c r="B214" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C214" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D214" s="17">
+        <v>2.0242624E7</v>
+      </c>
+      <c r="E214" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="F214" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="G214" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H214" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I214" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J214" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K214" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L214" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N214" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="19">
+        <v>45625.897822060186</v>
+      </c>
+      <c r="B215" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C215" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D215" s="20">
+        <v>2.0246932E7</v>
+      </c>
+      <c r="E215" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="F215" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="G215" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J215" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K215" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L215" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N215" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="16">
+        <v>45625.90355737269</v>
+      </c>
+      <c r="B216" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="C216" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" s="17">
+        <v>2.0202911E7</v>
+      </c>
+      <c r="E216" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="F216" s="18" t="s">
+        <v>689</v>
+      </c>
+      <c r="G216" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H216" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I216" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J216" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K216" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L216" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M216" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="19">
+        <v>45625.90470638889</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="C217" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D217" s="20">
+        <v>2.0242424E7</v>
+      </c>
+      <c r="E217" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="G217" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H217" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I217" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K217" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L217" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M217" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="16">
+        <v>45625.908030543986</v>
+      </c>
+      <c r="B218" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="C218" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D218" s="17">
+        <v>2.0233954E7</v>
+      </c>
+      <c r="E218" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="F218" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="G218" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H218" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I218" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K218" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L218" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M218" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="19">
+        <v>45625.94767902778</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="C219" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D219" s="20">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="F219" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="G219" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H219" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I219" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K219" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L219" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N219" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="16">
+        <v>45625.97337443287</v>
+      </c>
+      <c r="B220" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" s="17">
+        <v>2.0246279E7</v>
+      </c>
+      <c r="E220" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F220" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="G220" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K220" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L220" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N220" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="19">
+        <v>45625.98760300926</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="C221" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" s="20">
+        <v>2.0233031E7</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F221" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="G221" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H221" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I221" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J221" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K221" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L221" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N221" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="16">
+        <v>45625.997889363425</v>
+      </c>
+      <c r="B222" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D222" s="17">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E222" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="F222" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="G222" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I222" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J222" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K222" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L222" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N222" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="19">
+        <v>45625.9984852662</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="C223" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D223" s="20">
+        <v>2.0242118E7</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="F223" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="G223" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K223" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L223" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N223" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="16">
+        <v>45626.015373946764</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D224" s="17">
+        <v>2.021284E7</v>
+      </c>
+      <c r="E224" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="F224" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="G224" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J224" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L224" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M224" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="19">
+        <v>45626.0185203125</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D225" s="20">
+        <v>2.0243903E7</v>
+      </c>
+      <c r="E225" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="F225" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="G225" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I225" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J225" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K225" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L225" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N225" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="16">
+        <v>45626.040981053244</v>
+      </c>
+      <c r="B226" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D226" s="17">
+        <v>2.0242339E7</v>
+      </c>
+      <c r="E226" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="F226" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="G226" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H226" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L226" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M226" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="19">
+        <v>45626.044588275465</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="C227" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="D227" s="20">
+        <v>2.0203352E7</v>
+      </c>
+      <c r="E227" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="F227" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="G227" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I227" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J227" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K227" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L227" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M227" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="16">
+        <v>45626.106123819445</v>
+      </c>
+      <c r="B228" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D228" s="17">
+        <v>2.0221005E7</v>
+      </c>
+      <c r="E228" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="F228" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I228" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N228" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="19">
+        <v>45626.39962059028</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C229" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D229" s="20">
+        <v>2.0242751E7</v>
+      </c>
+      <c r="E229" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="F229" s="21" t="s">
+        <v>725</v>
+      </c>
+      <c r="G229" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H229" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I229" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J229" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K229" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L229" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M229" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="16">
+        <v>45626.436803634264</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D230" s="17">
+        <v>2.0246238E7</v>
+      </c>
+      <c r="E230" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="F230" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="G230" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I230" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J230" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K230" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L230" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N230" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="19">
+        <v>45626.445642094906</v>
+      </c>
+      <c r="B231" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D231" s="20">
+        <v>2.0243214E7</v>
+      </c>
+      <c r="E231" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="F231" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="G231" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K231" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L231" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M231" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="16">
+        <v>45626.48131635417</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="D232" s="17">
+        <v>2.0235179E7</v>
+      </c>
+      <c r="E232" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="F232" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="G232" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I232" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K232" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L232" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M232" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="19">
+        <v>45626.48139912037</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="C233" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D233" s="20">
+        <v>2.0242122E7</v>
+      </c>
+      <c r="E233" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="F233" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="G233" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I233" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L233" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N233" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="16">
+        <v>45626.495581145835</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D234" s="17">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E234" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="G234" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I234" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K234" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L234" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N234" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="19">
+        <v>45626.50156232639</v>
+      </c>
+      <c r="B235" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="C235" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="D235" s="20">
+        <v>2.0205124E7</v>
+      </c>
+      <c r="E235" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="F235" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="G235" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J235" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L235" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N235" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="16">
+        <v>45626.50831070602</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D236" s="17">
+        <v>2.0241081E7</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="F236" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="G236" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H236" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K236" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L236" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N236" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="19">
+        <v>45626.52876847222</v>
+      </c>
+      <c r="B237" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C237" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" s="20">
+        <v>2.0242901E7</v>
+      </c>
+      <c r="E237" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="F237" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="G237" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I237" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K237" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L237" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M237" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="16">
+        <v>45626.57897511574</v>
+      </c>
+      <c r="B238" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D238" s="17">
+        <v>2.0202736E7</v>
+      </c>
+      <c r="E238" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="F238" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="G238" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I238" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K238" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L238" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N238" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="19">
+        <v>45626.58411023148</v>
+      </c>
+      <c r="B239" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="C239" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D239" s="20">
+        <v>2.0227093E7</v>
+      </c>
+      <c r="E239" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="F239" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G239" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I239" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J239" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K239" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L239" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M239" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="16">
+        <v>45626.64046116898</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="D240" s="17">
+        <v>2.0216731E7</v>
+      </c>
+      <c r="E240" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="F240" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="G240" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K240" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L240" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M240" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="19">
+        <v>45626.6692449074</v>
+      </c>
+      <c r="B241" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="C241" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D241" s="20">
+        <v>2.0241517E7</v>
+      </c>
+      <c r="E241" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="F241" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G241" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I241" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J241" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K241" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L241" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M241" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="16">
+        <v>45626.67939828704</v>
+      </c>
+      <c r="B242" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" s="17">
+        <v>2.0246206E7</v>
+      </c>
+      <c r="E242" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="F242" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="G242" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H242" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I242" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K242" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L242" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N242" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="19">
+        <v>45626.68711917824</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="C243" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D243" s="20">
+        <v>2.0241044E7</v>
+      </c>
+      <c r="E243" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F243" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G243" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I243" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K243" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L243" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N243" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="16">
+        <v>45626.69048870371</v>
+      </c>
+      <c r="B244" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D244" s="17">
+        <v>2.0203423E7</v>
+      </c>
+      <c r="E244" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="F244" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G244" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I244" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J244" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K244" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L244" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M244" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="19">
+        <v>45626.69910704861</v>
+      </c>
+      <c r="B245" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="C245" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D245" s="20">
+        <v>2.024122E7</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="F245" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="G245" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H245" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K245" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L245" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M245" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="16">
+        <v>45626.69926645834</v>
+      </c>
+      <c r="B246" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D246" s="17">
+        <v>2.0212566E7</v>
+      </c>
+      <c r="E246" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="F246" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="G246" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H246" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I246" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K246" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L246" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N246" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="19">
+        <v>45626.71208133102</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C247" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D247" s="20">
+        <v>2.0242988E7</v>
+      </c>
+      <c r="E247" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="F247" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="G247" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I247" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K247" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L247" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M247" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="16">
+        <v>45626.72932150463</v>
+      </c>
+      <c r="B248" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="D248" s="17">
+        <v>2.0196523E7</v>
+      </c>
+      <c r="E248" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="F248" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="G248" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H248" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I248" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K248" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L248" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N248" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="19">
+        <v>45626.74489908565</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="C249" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D249" s="20">
+        <v>2.0243949E7</v>
+      </c>
+      <c r="E249" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="F249" s="21" t="s">
+        <v>777</v>
+      </c>
+      <c r="G249" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I249" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K249" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L249" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N249" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="16">
+        <v>45626.74729465278</v>
+      </c>
+      <c r="B250" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="17">
+        <v>2.0246204E7</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="F250" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="G250" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H250" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I250" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K250" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L250" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M250" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="19">
+        <v>45626.76015297454</v>
+      </c>
+      <c r="B251" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C251" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D251" s="20">
+        <v>2.0245266E7</v>
+      </c>
+      <c r="E251" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="F251" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="G251" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I251" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J251" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L251" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N251" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="16">
+        <v>45626.76283121528</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="D252" s="17">
+        <v>2.0243917E7</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="F252" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G252" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H252" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J252" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K252" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L252" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N252" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="19">
+        <v>45626.78203458333</v>
+      </c>
+      <c r="B253" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="C253" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D253" s="20">
+        <v>2.0241088E7</v>
+      </c>
+      <c r="E253" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="F253" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="G253" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I253" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K253" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L253" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N253" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="16">
+        <v>45626.804364606476</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" s="17">
+        <v>2.0246264E7</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="F254" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G254" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I254" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K254" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L254" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M254" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="19">
+        <v>45626.818627719906</v>
+      </c>
+      <c r="B255" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D255" s="20">
+        <v>2.0243237E7</v>
+      </c>
+      <c r="E255" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="F255" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G255" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H255" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I255" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J255" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K255" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L255" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M255" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="16">
+        <v>45626.83565759259</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" s="17">
+        <v>2.0236615E7</v>
+      </c>
+      <c r="E256" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="F256" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="G256" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H256" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I256" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L256" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M256" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="19">
+        <v>45626.84081112269</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="C257" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D257" s="20">
+        <v>2.0235248E7</v>
+      </c>
+      <c r="E257" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="F257" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G257" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H257" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I257" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K257" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L257" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M257" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="16">
+        <v>45626.84883101852</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D258" s="17">
+        <v>2.0242332E7</v>
+      </c>
+      <c r="E258" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="F258" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="G258" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I258" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K258" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L258" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N258" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="19">
+        <v>45626.87648258102</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="D259" s="20">
+        <v>2.0246942E7</v>
+      </c>
+      <c r="E259" s="20" t="s">
+        <v>801</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="G259" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I259" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K259" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L259" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M259" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="16">
+        <v>45626.88300902778</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D260" s="17">
+        <v>2.0232953E7</v>
+      </c>
+      <c r="E260" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F260" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G260" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H260" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I260" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K260" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L260" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M260" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="19">
+        <v>45626.888275405094</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D261" s="20">
+        <v>2.0243806E7</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="F261" s="21" t="s">
+        <v>695</v>
+      </c>
+      <c r="G261" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H261" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I261" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J261" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K261" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L261" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M261" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="16">
+        <v>45626.91089195602</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D262" s="17">
+        <v>2.0245218E7</v>
+      </c>
+      <c r="E262" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="F262" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="G262" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I262" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K262" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L262" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M262" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="19">
+        <v>45626.92168277778</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D263" s="20">
+        <v>2.0232527E7</v>
+      </c>
+      <c r="E263" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="G263" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H263" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I263" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J263" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L263" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N263" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="16">
+        <v>45626.9228840625</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D264" s="17">
+        <v>2.0216716E7</v>
+      </c>
+      <c r="E264" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="F264" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H264" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I264" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J264" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L264" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N264" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="19">
+        <v>45626.92795350694</v>
+      </c>
+      <c r="B265" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="C265" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="D265" s="20">
+        <v>2.0217152E7</v>
+      </c>
+      <c r="E265" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="F265" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G265" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H265" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J265" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K265" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L265" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N265" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="16">
+        <v>45626.932861875</v>
+      </c>
+      <c r="B266" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D266" s="17">
+        <v>2.0193813E7</v>
+      </c>
+      <c r="E266" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="F266" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G266" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I266" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K266" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L266" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M266" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="19">
+        <v>45626.966102060185</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="C267" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D267" s="20">
+        <v>2.0212801E7</v>
+      </c>
+      <c r="E267" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G267" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H267" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I267" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K267" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L267" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N267" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="16">
+        <v>45626.9745421875</v>
+      </c>
+      <c r="B268" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C268" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D268" s="17">
+        <v>2.020107E7</v>
+      </c>
+      <c r="E268" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="F268" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="G268" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J268" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K268" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L268" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N268" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="19">
+        <v>45626.976466747685</v>
+      </c>
+      <c r="B269" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="C269" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D269" s="20">
+        <v>2.0232726E7</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>821</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="G269" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J269" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K269" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L269" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M269" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="16">
+        <v>45627.00321092593</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D270" s="17">
+        <v>2.0242336E7</v>
+      </c>
+      <c r="E270" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="F270" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="G270" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H270" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I270" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K270" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M270" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="19">
+        <v>45627.015308518516</v>
+      </c>
+      <c r="B271" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="C271" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D271" s="20">
+        <v>2.0212551E7</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I271" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J271" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K271" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L271" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N271" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="16">
+        <v>45627.018536261574</v>
+      </c>
+      <c r="B272" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D272" s="17">
+        <v>2.0243712E7</v>
+      </c>
+      <c r="E272" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="F272" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="G272" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H272" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I272" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J272" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K272" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M272" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="19">
+        <v>45627.021545138894</v>
+      </c>
+      <c r="B273" s="20" t="s">
+        <v>832</v>
+      </c>
+      <c r="C273" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D273" s="20">
+        <v>2.0242323E7</v>
+      </c>
+      <c r="E273" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G273" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H273" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I273" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K273" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L273" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M273" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="16">
+        <v>45627.02427923611</v>
+      </c>
+      <c r="B274" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D274" s="17">
+        <v>2.0243612E7</v>
+      </c>
+      <c r="E274" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="F274" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="G274" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H274" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I274" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K274" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L274" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M274" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="19">
+        <v>45627.03002665509</v>
+      </c>
+      <c r="B275" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="C275" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D275" s="20">
+        <v>2.0243606E7</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H275" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K275" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L275" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M275" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="16">
+        <v>45627.03383601852</v>
+      </c>
+      <c r="B276" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="C276" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D276" s="17">
+        <v>2.0246782E7</v>
+      </c>
+      <c r="E276" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="F276" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="G276" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H276" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I276" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L276" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M276" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="19">
+        <v>45627.038703287035</v>
+      </c>
+      <c r="B277" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D277" s="20">
+        <v>2.024234E7</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="G277" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I277" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J277" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K277" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L277" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M277" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="16">
+        <v>45627.0538519213</v>
+      </c>
+      <c r="B278" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D278" s="17">
+        <v>2.0241515E7</v>
+      </c>
+      <c r="E278" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F278" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="G278" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I278" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J278" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K278" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L278" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N278" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="19">
+        <v>45627.065530520835</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>846</v>
+      </c>
+      <c r="C279" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279" s="20">
+        <v>2.0203211E7</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G279" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H279" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I279" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J279" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K279" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L279" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M279" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="16">
+        <v>45627.07244055555</v>
+      </c>
+      <c r="B280" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" s="17">
+        <v>2.0222902E7</v>
+      </c>
+      <c r="E280" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="F280" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="G280" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H280" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I280" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J280" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K280" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L280" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N280" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="19">
+        <v>45627.075026921295</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="C281" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D281" s="20">
+        <v>2.0243702E7</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="G281" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H281" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I281" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K281" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L281" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N281" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="16">
+        <v>45627.112208125</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" s="17">
+        <v>2.0242973E7</v>
+      </c>
+      <c r="E282" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="F282" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="G282" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H282" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I282" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K282" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L282" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N282" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="19">
+        <v>45627.13664732639</v>
+      </c>
+      <c r="B283" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="C283" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D283" s="20">
+        <v>2.0205195E7</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>859</v>
+      </c>
+      <c r="G283" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H283" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I283" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K283" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L283" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N283" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="16">
+        <v>45627.13764094908</v>
+      </c>
+      <c r="B284" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D284" s="17">
+        <v>2.0212555E7</v>
+      </c>
+      <c r="E284" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="F284" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="G284" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I284" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K284" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L284" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N284" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="19">
+        <v>45627.14807776621</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="C285" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D285" s="20">
+        <v>2.0202319E7</v>
+      </c>
+      <c r="E285" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="F285" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="G285" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H285" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J285" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K285" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L285" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N285" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="16">
+        <v>45627.317460555554</v>
+      </c>
+      <c r="B286" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D286" s="17">
+        <v>2.0227143E7</v>
+      </c>
+      <c r="E286" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="F286" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="G286" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I286" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K286" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L286" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M286" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="19">
+        <v>45627.358726886574</v>
+      </c>
+      <c r="B287" s="20" t="s">
+        <v>866</v>
+      </c>
+      <c r="C287" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D287" s="20">
+        <v>2.0217015E7</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>867</v>
+      </c>
+      <c r="F287" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G287" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H287" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I287" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K287" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L287" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M287" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="16">
+        <v>45627.36448355324</v>
+      </c>
+      <c r="B288" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="D288" s="17">
+        <v>2.0213035E7</v>
+      </c>
+      <c r="E288" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="F288" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="G288" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H288" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I288" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K288" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L288" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N288" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="19">
+        <v>45627.374914513886</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C289" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" s="20">
+        <v>2.0192901E7</v>
+      </c>
+      <c r="E289" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="F289" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G289" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H289" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I289" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K289" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L289" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M289" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="16">
+        <v>45627.39630409722</v>
+      </c>
+      <c r="B290" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="C290" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="17">
+        <v>2.0246271E7</v>
+      </c>
+      <c r="E290" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="F290" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="G290" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H290" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I290" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K290" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L290" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N290" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="19">
+        <v>45627.41342038194</v>
+      </c>
+      <c r="B291" s="20" t="s">
+        <v>875</v>
+      </c>
+      <c r="C291" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D291" s="20">
+        <v>2.0246233E7</v>
+      </c>
+      <c r="E291" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="F291" s="21" t="s">
+        <v>877</v>
+      </c>
+      <c r="G291" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I291" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J291" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K291" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L291" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M291" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="16">
+        <v>45627.483401261576</v>
+      </c>
+      <c r="B292" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="C292" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D292" s="17">
+        <v>2.0242707E7</v>
+      </c>
+      <c r="E292" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="F292" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G292" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H292" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I292" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J292" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K292" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L292" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M292" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="19">
+        <v>45627.544798310184</v>
+      </c>
+      <c r="B293" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="C293" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D293" s="20">
+        <v>2.0246628E7</v>
+      </c>
+      <c r="E293" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G293" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H293" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I293" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J293" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L293" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N293" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="16">
+        <v>45627.54589415509</v>
+      </c>
+      <c r="B294" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D294" s="17">
+        <v>2.024519E7</v>
+      </c>
+      <c r="E294" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="F294" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="G294" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H294" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I294" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K294" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L294" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M294" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="19">
+        <v>45627.54847152778</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="C295" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D295" s="20">
+        <v>2.0233509E7</v>
+      </c>
+      <c r="E295" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F295" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G295" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H295" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I295" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J295" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L295" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N295" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="16">
+        <v>45627.5502705324</v>
+      </c>
+      <c r="B296" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C296" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D296" s="17">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E296" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="F296" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="G296" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H296" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I296" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J296" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K296" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L296" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M296" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="19">
+        <v>45627.55131829861</v>
+      </c>
+      <c r="B297" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="C297" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D297" s="20">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E297" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G297" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H297" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I297" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J297" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L297" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N297" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="16">
+        <v>45627.56902059028</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="C298" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D298" s="17">
+        <v>2.0243955E7</v>
+      </c>
+      <c r="E298" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="F298" s="18" t="s">
+        <v>893</v>
+      </c>
+      <c r="G298" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I298" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K298" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L298" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N298" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="19">
+        <v>45627.574330868054</v>
+      </c>
+      <c r="B299" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="D299" s="20">
+        <v>2.0236739E7</v>
+      </c>
+      <c r="E299" s="20" t="s">
+        <v>896</v>
+      </c>
+      <c r="F299" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="G299" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H299" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I299" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J299" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K299" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L299" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M299" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="16">
+        <v>45627.6210371412</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D300" s="17">
+        <v>2.0241605E7</v>
+      </c>
+      <c r="E300" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F300" s="17">
+        <v>1121.0</v>
+      </c>
+      <c r="G300" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H300" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J300" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K300" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L300" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N300" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="19">
+        <v>45627.623489108795</v>
+      </c>
+      <c r="B301" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D301" s="20">
+        <v>2.0205188E7</v>
+      </c>
+      <c r="E301" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="F301" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G301" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H301" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I301" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J301" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L301" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M301" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="16">
+        <v>45627.63237597222</v>
+      </c>
+      <c r="B302" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C302" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D302" s="17">
+        <v>2.0214104E7</v>
+      </c>
+      <c r="E302" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="G302" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H302" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I302" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K302" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L302" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N302" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="19">
+        <v>45627.64414634259</v>
+      </c>
+      <c r="B303" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="C303" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="D303" s="20">
+        <v>2.0236121E7</v>
+      </c>
+      <c r="E303" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="F303" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="G303" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H303" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I303" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K303" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L303" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M303" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="16">
+        <v>45627.68071523149</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D304" s="17">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E304" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="G304" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I304" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K304" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L304" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N304" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="19">
+        <v>45627.680716076386</v>
+      </c>
+      <c r="B305" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="C305" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D305" s="20">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E305" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="F305" s="21" t="s">
+        <v>910</v>
+      </c>
+      <c r="G305" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H305" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I305" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J305" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K305" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L305" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M305" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="16">
+        <v>45627.68269758102</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" s="17">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E306" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G306" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H306" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I306" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J306" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K306" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L306" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N306" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="19">
+        <v>45627.68584829861</v>
+      </c>
+      <c r="B307" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="C307" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D307" s="20">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E307" s="20" t="s">
+        <v>914</v>
+      </c>
+      <c r="F307" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G307" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H307" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I307" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J307" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K307" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L307" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N307" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="16">
+        <v>45627.69352645833</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D308" s="17">
+        <v>2.0195158E7</v>
+      </c>
+      <c r="E308" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="F308" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="G308" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I308" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K308" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L308" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M308" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="19">
+        <v>45627.70356094907</v>
+      </c>
+      <c r="B309" s="20" t="s">
+        <v>918</v>
+      </c>
+      <c r="C309" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D309" s="20">
+        <v>2.0243815E7</v>
+      </c>
+      <c r="E309" s="20" t="s">
+        <v>919</v>
+      </c>
+      <c r="F309" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="G309" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H309" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I309" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K309" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L309" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M309" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="16">
+        <v>45627.71072283565</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="C310" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D310" s="17">
+        <v>2.0231622E7</v>
+      </c>
+      <c r="E310" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="G310" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I310" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J310" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K310" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L310" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M310" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="19">
+        <v>45627.71103174768</v>
+      </c>
+      <c r="B311" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="C311" s="20" t="s">
+        <v>925</v>
+      </c>
+      <c r="D311" s="20">
+        <v>2.0215239E7</v>
+      </c>
+      <c r="E311" s="20" t="s">
+        <v>926</v>
+      </c>
+      <c r="F311" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="G311" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I311" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J311" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K311" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L311" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N311" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="16">
+        <v>45627.72100118056</v>
+      </c>
+      <c r="B312" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C312" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" s="17">
+        <v>2.0183006E7</v>
+      </c>
+      <c r="E312" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="F312" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="G312" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H312" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I312" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K312" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L312" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N312" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="19">
+        <v>45627.72201952546</v>
+      </c>
+      <c r="B313" s="20" t="s">
+        <v>930</v>
+      </c>
+      <c r="C313" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D313" s="20">
+        <v>2.0224123E7</v>
+      </c>
+      <c r="E313" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="F313" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="G313" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H313" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I313" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K313" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L313" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N313" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="16">
+        <v>45627.726753344905</v>
+      </c>
+      <c r="B314" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="C314" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="D314" s="17">
+        <v>2.0242508E7</v>
+      </c>
+      <c r="E314" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="F314" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="G314" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H314" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I314" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J314" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K314" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L314" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N314" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="19">
+        <v>45627.72834741898</v>
+      </c>
+      <c r="B315" s="20" t="s">
+        <v>936</v>
+      </c>
+      <c r="C315" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D315" s="20">
+        <v>2.0192986E7</v>
+      </c>
+      <c r="E315" s="20" t="s">
+        <v>937</v>
+      </c>
+      <c r="F315" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="G315" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H315" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I315" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J315" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K315" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L315" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N315" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="16">
+        <v>45627.7340671875</v>
+      </c>
+      <c r="B316" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="C316" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D316" s="17">
+        <v>2.0207089E7</v>
+      </c>
+      <c r="E316" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="F316" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="G316" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H316" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I316" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J316" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K316" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L316" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M316" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="19">
+        <v>45627.740691886574</v>
+      </c>
+      <c r="B317" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D317" s="20">
+        <v>2.024296E7</v>
+      </c>
+      <c r="E317" s="20" t="s">
+        <v>942</v>
+      </c>
+      <c r="F317" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="G317" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H317" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I317" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K317" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L317" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N317" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="16">
+        <v>45627.74288672453</v>
+      </c>
+      <c r="B318" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="C318" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D318" s="17">
+        <v>2.024411E7</v>
+      </c>
+      <c r="E318" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="F318" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="G318" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H318" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I318" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K318" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L318" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M318" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="19">
+        <v>45627.74629834491</v>
+      </c>
+      <c r="B319" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D319" s="20">
+        <v>2.0212927E7</v>
+      </c>
+      <c r="E319" s="20" t="s">
+        <v>947</v>
+      </c>
+      <c r="F319" s="21" t="s">
+        <v>948</v>
+      </c>
+      <c r="G319" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H319" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I319" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L319" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M319" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="16">
+        <v>45627.74709721065</v>
+      </c>
+      <c r="B320" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C320" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D320" s="17">
+        <v>2.0242363E7</v>
+      </c>
+      <c r="E320" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="F320" s="18" t="s">
+        <v>951</v>
+      </c>
+      <c r="G320" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H320" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I320" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L320" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M320" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="19">
+        <v>45627.76184327547</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>952</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D321" s="20">
+        <v>2.0202834E7</v>
+      </c>
+      <c r="E321" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="F321" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="G321" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H321" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I321" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K321" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L321" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M321" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="16">
+        <v>45627.76785251158</v>
+      </c>
+      <c r="B322" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C322" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D322" s="17">
+        <v>2.0217173E7</v>
+      </c>
+      <c r="E322" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="F322" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="G322" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H322" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I322" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K322" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L322" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N322" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="19">
+        <v>45627.77620678241</v>
+      </c>
+      <c r="B323" s="20" t="s">
+        <v>958</v>
+      </c>
+      <c r="C323" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D323" s="20" t="s">
+        <v>959</v>
+      </c>
+      <c r="E323" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="F323" s="21" t="s">
+        <v>961</v>
+      </c>
+      <c r="G323" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H323" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I323" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J323" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K323" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L323" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N323" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="16">
+        <v>45627.77769640046</v>
+      </c>
+      <c r="B324" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="C324" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D324" s="17">
+        <v>2.0232637E7</v>
+      </c>
+      <c r="E324" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="F324" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="G324" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K324" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L324" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M324" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="19">
+        <v>45627.77811863426</v>
+      </c>
+      <c r="B325" s="20" t="s">
+        <v>965</v>
+      </c>
+      <c r="C325" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D325" s="20">
+        <v>2.0231623E7</v>
+      </c>
+      <c r="E325" s="20" t="s">
+        <v>966</v>
+      </c>
+      <c r="F325" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="G325" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H325" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I325" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J325" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L325" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N325" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="16">
+        <v>45627.78437653935</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D326" s="17">
+        <v>2.0191604E7</v>
+      </c>
+      <c r="E326" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="F326" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="G326" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H326" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I326" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J326" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K326" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L326" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M326" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="19">
+        <v>45627.800965601855</v>
+      </c>
+      <c r="B327" s="20" t="s">
+        <v>969</v>
+      </c>
+      <c r="C327" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D327" s="20">
+        <v>2.0241236E7</v>
+      </c>
+      <c r="E327" s="20" t="s">
+        <v>970</v>
+      </c>
+      <c r="F327" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="G327" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H327" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J327" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K327" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L327" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N327" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="16">
+        <v>45627.801981446755</v>
+      </c>
+      <c r="B328" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="C328" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D328" s="17">
+        <v>2.024413E7</v>
+      </c>
+      <c r="E328" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="F328" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="G328" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H328" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I328" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J328" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K328" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L328" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M328" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="19">
+        <v>45627.803013055556</v>
+      </c>
+      <c r="B329" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="C329" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D329" s="20">
+        <v>2.0202641E7</v>
+      </c>
+      <c r="E329" s="20" t="s">
+        <v>975</v>
+      </c>
+      <c r="F329" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G329" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H329" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I329" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K329" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L329" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M329" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="16">
+        <v>45627.80474260417</v>
+      </c>
+      <c r="B330" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="C330" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="D330" s="17">
+        <v>2.024415E7</v>
+      </c>
+      <c r="E330" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="F330" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G330" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H330" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I330" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J330" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K330" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L330" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N330" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="19">
+        <v>45627.805870324075</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="C331" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D331" s="20">
+        <v>2.0242515E7</v>
+      </c>
+      <c r="E331" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="F331" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="G331" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I331" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J331" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K331" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L331" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M331" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="16">
+        <v>45627.810207835646</v>
+      </c>
+      <c r="B332" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C332" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="D332" s="17">
+        <v>2.0243259E7</v>
+      </c>
+      <c r="E332" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="F332" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G332" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H332" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I332" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K332" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L332" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N332" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="19">
+        <v>45627.81251019676</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="C333" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D333" s="20">
+        <v>2.0246633E7</v>
+      </c>
+      <c r="E333" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="F333" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G333" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I333" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K333" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L333" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M333" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="16">
+        <v>45627.81796015047</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="C334" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D334" s="17">
+        <v>2.0226602E7</v>
+      </c>
+      <c r="E334" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="F334" s="18" t="s">
+        <v>989</v>
+      </c>
+      <c r="G334" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I334" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J334" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K334" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L334" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M334" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="19">
+        <v>45627.82270547454</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="C335" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="D335" s="20">
+        <v>2.0232938E7</v>
+      </c>
+      <c r="E335" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="F335" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="G335" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H335" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J335" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K335" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L335" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N335" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="16">
+        <v>45627.82518813657</v>
+      </c>
+      <c r="B336" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="C336" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D336" s="17">
+        <v>2.0242503E7</v>
+      </c>
+      <c r="E336" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="F336" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="G336" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H336" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I336" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K336" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L336" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M336" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="19">
+        <v>45627.83965207176</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>994</v>
+      </c>
+      <c r="C337" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D337" s="20">
+        <v>2.0232311E7</v>
+      </c>
+      <c r="E337" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="F337" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="G337" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I337" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J337" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K337" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L337" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M337" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="16">
+        <v>45627.84046555556</v>
+      </c>
+      <c r="B338" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="C338" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D338" s="17">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E338" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="F338" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="G338" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I338" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J338" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K338" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L338" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M338" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="19">
+        <v>45627.8414596875</v>
+      </c>
+      <c r="B339" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="C339" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D339" s="20">
+        <v>2.0192737E7</v>
+      </c>
+      <c r="E339" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F339" s="21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G339" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H339" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I339" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K339" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L339" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M339" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="16">
+        <v>45627.8452679051</v>
+      </c>
+      <c r="B340" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D340" s="17">
+        <v>2.0172719E7</v>
+      </c>
+      <c r="E340" s="17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F340" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="G340" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I340" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K340" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L340" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N340" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="19">
+        <v>45627.86234260417</v>
+      </c>
+      <c r="B341" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C341" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D341" s="20">
+        <v>2.0244123E7</v>
+      </c>
+      <c r="E341" s="20" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F341" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G341" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I341" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L341" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M341" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="16">
+        <v>45627.86261863426</v>
+      </c>
+      <c r="B342" s="17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C342" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D342" s="17">
+        <v>2.0243627E7</v>
+      </c>
+      <c r="E342" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F342" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G342" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I342" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J342" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K342" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L342" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N342" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="19">
+        <v>45627.86591070602</v>
+      </c>
+      <c r="B343" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C343" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D343" s="20">
+        <v>2.0211625E7</v>
+      </c>
+      <c r="E343" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F343" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="G343" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I343" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J343" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K343" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L343" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N343" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="16">
+        <v>45627.87106622686</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C344" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D344" s="17">
+        <v>2.0242732E7</v>
+      </c>
+      <c r="E344" s="17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F344" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G344" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H344" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I344" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J344" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K344" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L344" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N344" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="19">
+        <v>45627.874353148145</v>
+      </c>
+      <c r="B345" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C345" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="20">
+        <v>2.0191084E7</v>
+      </c>
+      <c r="E345" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F345" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G345" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H345" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I345" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K345" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L345" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M345" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="16">
+        <v>45627.87840071759</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C346" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D346" s="17">
+        <v>2.0192634E7</v>
+      </c>
+      <c r="E346" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F346" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="G346" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I346" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J346" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K346" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L346" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M346" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="19">
+        <v>45627.882808877315</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C347" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D347" s="20">
+        <v>2.0227022E7</v>
+      </c>
+      <c r="E347" s="20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F347" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G347" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I347" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K347" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L347" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M347" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="16">
+        <v>45627.89859087963</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C348" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" s="17">
+        <v>2.0202994E7</v>
+      </c>
+      <c r="E348" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F348" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G348" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H348" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I348" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K348" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L348" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M348" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="19">
+        <v>45627.89961144676</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C349" s="20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D349" s="20">
+        <v>2.0203026E7</v>
+      </c>
+      <c r="E349" s="20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F349" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G349" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I349" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J349" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K349" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L349" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N349" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="16">
+        <v>45627.90085100694</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C350" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D350" s="17">
+        <v>2.0241728E7</v>
+      </c>
+      <c r="E350" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F350" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G350" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H350" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I350" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K350" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L350" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M350" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="19">
+        <v>45627.90101252314</v>
+      </c>
+      <c r="B351" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C351" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D351" s="20">
+        <v>2.0243314E7</v>
+      </c>
+      <c r="E351" s="20" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F351" s="21" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G351" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H351" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I351" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K351" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L351" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M351" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="16">
+        <v>45627.90589613426</v>
+      </c>
+      <c r="B352" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C352" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D352" s="17">
+        <v>2.0213224E7</v>
+      </c>
+      <c r="E352" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F352" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="G352" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H352" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I352" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J352" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K352" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L352" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M352" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="19">
+        <v>45627.90770988426</v>
+      </c>
+      <c r="B353" s="20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C353" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D353" s="20">
+        <v>2.0242138E7</v>
+      </c>
+      <c r="E353" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F353" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G353" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H353" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I353" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J353" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K353" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L353" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M353" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="16">
+        <v>45627.90890234953</v>
+      </c>
+      <c r="B354" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C354" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D354" s="17">
+        <v>2.0192616E7</v>
+      </c>
+      <c r="E354" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F354" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G354" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H354" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I354" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K354" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L354" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M354" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="19">
+        <v>45627.91704809028</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C355" s="20">
+        <v>2.0231602E7</v>
+      </c>
+      <c r="D355" s="20">
+        <v>2.0231602E7</v>
+      </c>
+      <c r="E355" s="20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F355" s="21" t="s">
+        <v>995</v>
+      </c>
+      <c r="G355" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H355" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I355" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J355" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K355" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L355" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N355" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="16">
+        <v>45627.91945715278</v>
+      </c>
+      <c r="B356" s="17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C356" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D356" s="17">
+        <v>2.0242982E7</v>
+      </c>
+      <c r="E356" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F356" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G356" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H356" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I356" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J356" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K356" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L356" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N356" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="19">
+        <v>45627.93675739583</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C357" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" s="20">
+        <v>2.0243001E7</v>
+      </c>
+      <c r="E357" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F357" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G357" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I357" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J357" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K357" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L357" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N357" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="16">
+        <v>45627.96106239583</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C358" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D358" s="17">
+        <v>2.0203006E7</v>
+      </c>
+      <c r="E358" s="17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F358" s="18" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G358" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H358" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I358" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J358" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K358" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L358" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N358" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="19">
+        <v>45627.97670678241</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C359" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D359" s="20">
+        <v>2.0245196E7</v>
+      </c>
+      <c r="E359" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F359" s="20" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G359" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H359" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I359" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K359" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L359" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N359" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="16">
+        <v>45627.97833309028</v>
+      </c>
+      <c r="B360" s="17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C360" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D360" s="17">
+        <v>2.0203302E7</v>
+      </c>
+      <c r="E360" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="F360" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G360" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H360" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I360" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J360" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K360" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L360" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N360" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="19">
+        <v>45627.97873079861</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C361" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="D361" s="20">
+        <v>2.0213241E7</v>
+      </c>
+      <c r="E361" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F361" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G361" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I361" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K361" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L361" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M361" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="16">
+        <v>45627.98309987268</v>
+      </c>
+      <c r="B362" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C362" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D362" s="17">
+        <v>2.0246293E7</v>
+      </c>
+      <c r="E362" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F362" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="G362" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H362" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I362" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K362" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L362" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N362" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="19">
+        <v>45627.98669090278</v>
+      </c>
+      <c r="B363" s="20" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C363" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D363" s="20">
+        <v>2.020257E7</v>
+      </c>
+      <c r="E363" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F363" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G363" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H363" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I363" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J363" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K363" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L363" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N363" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="16">
+        <v>45627.999329432874</v>
+      </c>
+      <c r="B364" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C364" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D364" s="17">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E364" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F364" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G364" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H364" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I364" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K364" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L364" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M364" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="19">
+        <v>45628.00282466435</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C365" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D365" s="20">
+        <v>2.0181628E7</v>
+      </c>
+      <c r="E365" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F365" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="G365" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H365" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I365" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J365" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K365" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L365" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N365" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="16">
+        <v>45628.00471652778</v>
+      </c>
+      <c r="B366" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C366" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D366" s="17">
+        <v>2.0227111E7</v>
+      </c>
+      <c r="E366" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F366" s="18" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G366" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H366" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I366" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J366" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K366" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L366" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M366" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="19">
+        <v>45628.02258547454</v>
+      </c>
+      <c r="B367" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C367" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D367" s="20">
+        <v>2.0246752E7</v>
+      </c>
+      <c r="E367" s="20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F367" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="G367" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I367" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J367" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K367" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L367" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N367" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="24">
+        <v>45628.06878677083</v>
+      </c>
+      <c r="B368" s="25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C368" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D368" s="25">
+        <v>2.0217178E7</v>
+      </c>
+      <c r="E368" s="25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F368" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="G368" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H368" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I368" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J368" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K368" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L368" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N368" s="27" t="s">
         <v>35</v>
       </c>
     </row>

--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="1120">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3231,6 +3231,147 @@
   </si>
   <si>
     <t>조민지</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">융합과학수사학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">강은찬 </t>
+  </si>
+  <si>
+    <t>09/03</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>05/03</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>06/21</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지과</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>3월 4일</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>05/18</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>04/19</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>08/10</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
   </si>
 </sst>
 </file>
@@ -3261,7 +3402,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3417,25 +3558,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3517,9 +3644,6 @@
     <xf quotePrefix="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3578,7 +3702,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N368" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N386" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -18881,44 +19005,782 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="24">
+      <c r="A368" s="16">
         <v>45628.06878677083</v>
       </c>
-      <c r="B368" s="25" t="s">
+      <c r="B368" s="17" t="s">
         <v>1071</v>
       </c>
-      <c r="C368" s="25" t="s">
+      <c r="C368" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D368" s="25">
+      <c r="D368" s="17">
         <v>2.0217178E7</v>
       </c>
-      <c r="E368" s="25" t="s">
+      <c r="E368" s="17" t="s">
         <v>1072</v>
       </c>
-      <c r="F368" s="26" t="s">
+      <c r="F368" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="G368" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H368" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I368" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J368" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K368" s="25" t="s">
+      <c r="G368" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H368" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I368" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J368" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K368" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L368" s="25" t="s">
+      <c r="L368" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N368" s="27" t="s">
+      <c r="N368" s="23" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="19">
+        <v>45628.46199480324</v>
+      </c>
+      <c r="B369" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D369" s="20">
+        <v>2.0246904E7</v>
+      </c>
+      <c r="E369" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F369" s="21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G369" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H369" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I369" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J369" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K369" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L369" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M369" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="16">
+        <v>45628.485364305554</v>
+      </c>
+      <c r="B370" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C370" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D370" s="17">
+        <v>2.0246244E7</v>
+      </c>
+      <c r="E370" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F370" s="18" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G370" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H370" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I370" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J370" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K370" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L370" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M370" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="19">
+        <v>45628.5478065625</v>
+      </c>
+      <c r="B371" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D371" s="20">
+        <v>2.0227106E7</v>
+      </c>
+      <c r="E371" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F371" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G371" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I371" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J371" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K371" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L371" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N371" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="16">
+        <v>45628.58825069445</v>
+      </c>
+      <c r="B372" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C372" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D372" s="17">
+        <v>2.0212971E7</v>
+      </c>
+      <c r="E372" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F372" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G372" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I372" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K372" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L372" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M372" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="19">
+        <v>45628.61605881945</v>
+      </c>
+      <c r="B373" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C373" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D373" s="20">
+        <v>2.0242725E7</v>
+      </c>
+      <c r="E373" s="20" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F373" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G373" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H373" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I373" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K373" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L373" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M373" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="16">
+        <v>45628.633397893514</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C374" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D374" s="17">
+        <v>2.0231733E7</v>
+      </c>
+      <c r="E374" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F374" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G374" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H374" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I374" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J374" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K374" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L374" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N374" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="19">
+        <v>45628.68324940972</v>
+      </c>
+      <c r="B375" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D375" s="20">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E375" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F375" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G375" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I375" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J375" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K375" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L375" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N375" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="16">
+        <v>45628.77183084491</v>
+      </c>
+      <c r="B376" s="17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C376" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D376" s="17">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E376" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F376" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G376" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H376" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I376" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J376" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K376" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L376" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N376" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="19">
+        <v>45628.84331483796</v>
+      </c>
+      <c r="B377" s="20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C377" s="20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D377" s="20">
+        <v>2.0227034E7</v>
+      </c>
+      <c r="E377" s="20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F377" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G377" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H377" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I377" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J377" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K377" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L377" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N377" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="16">
+        <v>45628.86190207176</v>
+      </c>
+      <c r="B378" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C378" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" s="17">
+        <v>2.0232937E7</v>
+      </c>
+      <c r="E378" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F378" s="18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G378" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H378" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I378" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J378" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K378" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L378" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N378" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="19">
+        <v>45628.86907577547</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C379" s="20">
+        <v>2.0241509E7</v>
+      </c>
+      <c r="D379" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E379" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F379" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G379" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H379" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K379" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L379" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N379" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="16">
+        <v>45628.87065545139</v>
+      </c>
+      <c r="B380" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C380" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D380" s="17">
+        <v>2.0203251E7</v>
+      </c>
+      <c r="E380" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F380" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G380" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I380" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J380" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K380" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L380" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M380" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="19">
+        <v>45628.956518946754</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C381" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D381" s="20">
+        <v>2.0246603E7</v>
+      </c>
+      <c r="E381" s="20" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F381" s="21" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G381" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H381" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I381" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J381" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K381" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L381" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M381" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="16">
+        <v>45628.982676423606</v>
+      </c>
+      <c r="B382" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C382" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D382" s="17">
+        <v>2.0235263E7</v>
+      </c>
+      <c r="E382" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="F382" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="G382" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I382" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J382" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K382" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L382" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M382" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="19">
+        <v>45628.987786770835</v>
+      </c>
+      <c r="B383" s="20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C383" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D383" s="20">
+        <v>2.024363E7</v>
+      </c>
+      <c r="E383" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F383" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="G383" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H383" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I383" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J383" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K383" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L383" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N383" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="16">
+        <v>45629.379633414355</v>
+      </c>
+      <c r="B384" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C384" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D384" s="17">
+        <v>2.0205176E7</v>
+      </c>
+      <c r="E384" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F384" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="G384" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H384" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I384" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J384" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K384" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L384" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M384" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="19">
+        <v>45629.46465896991</v>
+      </c>
+      <c r="B385" s="20" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C385" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D385" s="20">
+        <v>2.0223316E7</v>
+      </c>
+      <c r="E385" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F385" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G385" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H385" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J385" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K385" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L385" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M385" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="24">
+        <v>45629.51491238426</v>
+      </c>
+      <c r="B386" s="25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C386" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="D386" s="25">
+        <v>2.0236727E7</v>
+      </c>
+      <c r="E386" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F386" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="G386" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H386" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I386" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J386" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K386" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L386" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M386" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="1141">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3372,6 +3372,69 @@
   </si>
   <si>
     <t>박진서</t>
+  </si>
+  <si>
+    <t>youlove6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>08/28</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
   </si>
 </sst>
 </file>
@@ -3702,7 +3765,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N386" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N396" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -19743,44 +19806,454 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="24">
+      <c r="A386" s="16">
         <v>45629.51491238426</v>
       </c>
-      <c r="B386" s="25" t="s">
+      <c r="B386" s="17" t="s">
         <v>1118</v>
       </c>
-      <c r="C386" s="25" t="s">
+      <c r="C386" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="D386" s="25">
+      <c r="D386" s="17">
         <v>2.0236727E7</v>
       </c>
-      <c r="E386" s="25" t="s">
+      <c r="E386" s="17" t="s">
         <v>1119</v>
       </c>
-      <c r="F386" s="26" t="s">
+      <c r="F386" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="G386" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H386" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I386" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J386" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K386" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L386" s="25" t="s">
+      <c r="G386" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H386" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I386" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J386" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K386" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L386" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M386" s="25" t="s">
+      <c r="M386" s="17" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="19">
+        <v>45629.57924299769</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C387" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D387" s="20">
+        <v>2.0232745E7</v>
+      </c>
+      <c r="E387" s="20" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F387" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G387" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H387" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I387" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J387" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K387" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L387" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N387" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="16">
+        <v>45629.58675043982</v>
+      </c>
+      <c r="B388" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C388" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="D388" s="17">
+        <v>2.0205217E7</v>
+      </c>
+      <c r="E388" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F388" s="18" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G388" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I388" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J388" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K388" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L388" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M388" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="19">
+        <v>45629.61612306713</v>
+      </c>
+      <c r="B389" s="20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C389" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D389" s="20">
+        <v>2.0182308E7</v>
+      </c>
+      <c r="E389" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F389" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="G389" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H389" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I389" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J389" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K389" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L389" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N389" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="16">
+        <v>45629.70852891204</v>
+      </c>
+      <c r="B390" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C390" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D390" s="17">
+        <v>2.0191623E7</v>
+      </c>
+      <c r="E390" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F390" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="G390" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H390" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I390" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K390" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L390" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M390" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="19">
+        <v>45629.779627199074</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C391" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D391" s="20">
+        <v>2.0227073E7</v>
+      </c>
+      <c r="E391" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F391" s="21" t="s">
+        <v>954</v>
+      </c>
+      <c r="G391" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H391" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I391" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J391" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K391" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L391" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M391" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="16">
+        <v>45629.793016944444</v>
+      </c>
+      <c r="B392" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C392" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D392" s="17">
+        <v>2.0241503E7</v>
+      </c>
+      <c r="E392" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F392" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="G392" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H392" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I392" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J392" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K392" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L392" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M392" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="19">
+        <v>45629.80419228009</v>
+      </c>
+      <c r="B393" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C393" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D393" s="20">
+        <v>2.0246715E7</v>
+      </c>
+      <c r="E393" s="20" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F393" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G393" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I393" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J393" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K393" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L393" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N393" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="16">
+        <v>45629.8261237963</v>
+      </c>
+      <c r="B394" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C394" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D394" s="17">
+        <v>2.0243253E7</v>
+      </c>
+      <c r="E394" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F394" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="G394" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H394" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I394" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J394" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K394" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L394" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M394" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="19">
+        <v>45629.89468686342</v>
+      </c>
+      <c r="B395" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C395" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D395" s="20">
+        <v>2.0231621E7</v>
+      </c>
+      <c r="E395" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F395" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="G395" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H395" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I395" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J395" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K395" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L395" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M395" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="24">
+        <v>45629.95119270834</v>
+      </c>
+      <c r="B396" s="25" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C396" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D396" s="25">
+        <v>2.022283E7</v>
+      </c>
+      <c r="E396" s="25" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F396" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="G396" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H396" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I396" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J396" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K396" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L396" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M396" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4357" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="1179">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3435,6 +3435,120 @@
   </si>
   <si>
     <t>이승재</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>04/29</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.cpm</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>10/21</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어학과</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>0611</t>
+  </si>
+  <si>
+    <t>saeul05@gmail.com</t>
+  </si>
+  <si>
+    <t>문새울</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>06/30</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>11/14</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>02/17</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>08/11</t>
   </si>
 </sst>
 </file>
@@ -3598,10 +3712,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3609,13 +3723,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3765,7 +3879,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N396" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N411" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -20216,44 +20330,659 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="24">
+      <c r="A396" s="16">
         <v>45629.95119270834</v>
       </c>
-      <c r="B396" s="25" t="s">
+      <c r="B396" s="17" t="s">
         <v>1139</v>
       </c>
-      <c r="C396" s="25" t="s">
+      <c r="C396" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D396" s="25">
+      <c r="D396" s="17">
         <v>2.022283E7</v>
       </c>
-      <c r="E396" s="25" t="s">
+      <c r="E396" s="17" t="s">
         <v>1140</v>
       </c>
-      <c r="F396" s="26" t="s">
+      <c r="F396" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="G396" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H396" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I396" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J396" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K396" s="25" t="s">
+      <c r="G396" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H396" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I396" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J396" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K396" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L396" s="25" t="s">
+      <c r="L396" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M396" s="25" t="s">
+      <c r="M396" s="17" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="19">
+        <v>45630.49724401621</v>
+      </c>
+      <c r="B397" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C397" s="20" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D397" s="20">
+        <v>2.0227091E7</v>
+      </c>
+      <c r="E397" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F397" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G397" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H397" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I397" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J397" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K397" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L397" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M397" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="16">
+        <v>45630.6136128588</v>
+      </c>
+      <c r="B398" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C398" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D398" s="17">
+        <v>2.0233408E7</v>
+      </c>
+      <c r="E398" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F398" s="18" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G398" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H398" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I398" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J398" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K398" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L398" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N398" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="19">
+        <v>45630.6444406713</v>
+      </c>
+      <c r="B399" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C399" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D399" s="20">
+        <v>2.0201071E7</v>
+      </c>
+      <c r="E399" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F399" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G399" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H399" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I399" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K399" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L399" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N399" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="16">
+        <v>45630.7187499537</v>
+      </c>
+      <c r="B400" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C400" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D400" s="17">
+        <v>2.0242112E7</v>
+      </c>
+      <c r="E400" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F400" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="G400" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H400" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I400" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J400" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K400" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L400" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M400" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="19">
+        <v>45630.72609626157</v>
+      </c>
+      <c r="B401" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C401" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D401" s="20">
+        <v>2.0202719E7</v>
+      </c>
+      <c r="E401" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F401" s="21" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G401" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H401" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I401" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J401" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L401" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M401" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="16">
+        <v>45630.74933741898</v>
+      </c>
+      <c r="B402" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C402" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D402" s="17">
+        <v>2.024244E7</v>
+      </c>
+      <c r="E402" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F402" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G402" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H402" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I402" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J402" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K402" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L402" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N402" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="19">
+        <v>45630.768045439814</v>
+      </c>
+      <c r="B403" s="20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C403" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D403" s="20">
+        <v>2.0242907E7</v>
+      </c>
+      <c r="E403" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F403" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G403" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H403" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I403" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J403" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K403" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L403" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N403" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="16">
+        <v>45630.83268655093</v>
+      </c>
+      <c r="B404" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C404" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D404" s="17">
+        <v>2.0202415E7</v>
+      </c>
+      <c r="E404" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F404" s="18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G404" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H404" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I404" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J404" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K404" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L404" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N404" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="19">
+        <v>45630.84139952547</v>
+      </c>
+      <c r="B405" s="20" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C405" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D405" s="20">
+        <v>2.0246621E7</v>
+      </c>
+      <c r="E405" s="20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F405" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="G405" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H405" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I405" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J405" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K405" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L405" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M405" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="16">
+        <v>45630.85675548611</v>
+      </c>
+      <c r="B406" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C406" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D406" s="17">
+        <v>2.0243601E7</v>
+      </c>
+      <c r="E406" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F406" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="G406" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H406" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I406" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J406" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K406" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L406" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N406" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="19">
+        <v>45630.87842165509</v>
+      </c>
+      <c r="B407" s="20" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C407" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D407" s="20">
+        <v>2.0245156E7</v>
+      </c>
+      <c r="E407" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F407" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G407" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H407" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I407" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J407" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K407" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L407" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M407" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="16">
+        <v>45630.91421170138</v>
+      </c>
+      <c r="B408" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C408" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D408" s="17">
+        <v>2.0223022E7</v>
+      </c>
+      <c r="E408" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="F408" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G408" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H408" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I408" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J408" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K408" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L408" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M408" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="19">
+        <v>45630.97875001158</v>
+      </c>
+      <c r="B409" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C409" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D409" s="20">
+        <v>2.0243905E7</v>
+      </c>
+      <c r="E409" s="20" t="s">
+        <v>934</v>
+      </c>
+      <c r="F409" s="21" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G409" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H409" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I409" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J409" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K409" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L409" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M409" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="16">
+        <v>45630.991031770835</v>
+      </c>
+      <c r="B410" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C410" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D410" s="17">
+        <v>2.0243814E7</v>
+      </c>
+      <c r="E410" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F410" s="18" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G410" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H410" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I410" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J410" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K410" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L410" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M410" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="24">
+        <v>45630.99127569444</v>
+      </c>
+      <c r="B411" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C411" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D411" s="25">
+        <v>2.0243912E7</v>
+      </c>
+      <c r="E411" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F411" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G411" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H411" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K411" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L411" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M411" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz241125_tmp.xlsx
+++ b/R/data/quiz241125_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4907" uniqueCount="1273">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3549,6 +3549,288 @@
   </si>
   <si>
     <t>08/11</t>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>gur3174@gmail.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>06/17</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>02/03</t>
+  </si>
+  <si>
+    <t>gisung5864@gmail.com</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>08/01</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>07/27</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>02/11</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>04/18</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>융학과학수사학과</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>06/26</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>08/24</t>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>08/21</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>09/16</t>
+  </si>
+  <si>
+    <t>zjxps2007@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 it 전공</t>
+  </si>
+  <si>
+    <t>조인호</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김영</t>
+  </si>
+  <si>
+    <t>08/15</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>03/12</t>
+  </si>
+  <si>
+    <t>leejs7807@gmail.com</t>
+  </si>
+  <si>
+    <t>이종선</t>
+  </si>
+  <si>
+    <t>05/06</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/02</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
   </si>
 </sst>
 </file>
@@ -3579,7 +3861,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -3712,10 +3994,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3723,13 +4005,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3739,7 +4035,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3821,6 +4117,9 @@
     <xf quotePrefix="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3879,7 +4178,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N411" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N446" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -20945,44 +21244,1479 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="24">
+      <c r="A411" s="19">
         <v>45630.99127569444</v>
       </c>
-      <c r="B411" s="25" t="s">
+      <c r="B411" s="20" t="s">
         <v>1176</v>
       </c>
-      <c r="C411" s="25" t="s">
+      <c r="C411" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D411" s="25">
+      <c r="D411" s="20">
         <v>2.0243912E7</v>
       </c>
-      <c r="E411" s="25" t="s">
+      <c r="E411" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="F411" s="26" t="s">
+      <c r="F411" s="21" t="s">
         <v>1178</v>
       </c>
-      <c r="G411" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H411" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I411" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J411" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K411" s="25" t="s">
+      <c r="G411" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H411" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K411" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L411" s="25" t="s">
+      <c r="L411" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="M411" s="25" t="s">
+      <c r="M411" s="20" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="16">
+        <v>45631.38459427083</v>
+      </c>
+      <c r="B412" s="17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C412" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="D412" s="17">
+        <v>2.0203513E7</v>
+      </c>
+      <c r="E412" s="17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F412" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="G412" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H412" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I412" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J412" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K412" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L412" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M412" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="19">
+        <v>45631.422834004625</v>
+      </c>
+      <c r="B413" s="20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C413" s="20" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D413" s="20">
+        <v>2.0233846E7</v>
+      </c>
+      <c r="E413" s="20" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F413" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G413" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H413" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I413" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J413" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K413" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L413" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N413" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="16">
+        <v>45631.45572226852</v>
+      </c>
+      <c r="B414" s="17" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C414" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D414" s="17">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E414" s="17" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F414" s="18" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G414" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H414" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I414" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J414" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K414" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L414" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N414" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="19">
+        <v>45631.514738576385</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C415" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D415" s="20">
+        <v>2.0212609E7</v>
+      </c>
+      <c r="E415" s="20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F415" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="G415" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H415" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I415" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J415" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K415" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L415" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M415" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="16">
+        <v>45631.548414537036</v>
+      </c>
+      <c r="B416" s="17" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C416" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D416" s="17">
+        <v>2.0213023E7</v>
+      </c>
+      <c r="E416" s="17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F416" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="G416" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H416" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I416" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J416" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K416" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L416" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N416" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="19">
+        <v>45631.602762696755</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C417" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D417" s="20">
+        <v>2.0241097E7</v>
+      </c>
+      <c r="E417" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F417" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="G417" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H417" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I417" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J417" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K417" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L417" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M417" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="16">
+        <v>45631.647805092594</v>
+      </c>
+      <c r="B418" s="17" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C418" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D418" s="17">
+        <v>2.0245176E7</v>
+      </c>
+      <c r="E418" s="17" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F418" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G418" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H418" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I418" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J418" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K418" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L418" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M418" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="19">
+        <v>45631.723191875004</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C419" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="D419" s="20">
+        <v>2.0216526E7</v>
+      </c>
+      <c r="E419" s="20" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F419" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G419" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I419" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J419" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K419" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L419" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M419" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="16">
+        <v>45631.796610590274</v>
+      </c>
+      <c r="B420" s="17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C420" s="17" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D420" s="17">
+        <v>2.0231033E7</v>
+      </c>
+      <c r="E420" s="17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F420" s="18" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G420" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H420" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I420" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J420" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K420" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L420" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M420" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="19">
+        <v>45631.88588814814</v>
+      </c>
+      <c r="B421" s="20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C421" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D421" s="20">
+        <v>2.0242737E7</v>
+      </c>
+      <c r="E421" s="20" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F421" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="G421" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H421" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I421" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J421" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K421" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L421" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M421" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="16">
+        <v>45631.89873434028</v>
+      </c>
+      <c r="B422" s="17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C422" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D422" s="17">
+        <v>2.0242749E7</v>
+      </c>
+      <c r="E422" s="17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F422" s="18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G422" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H422" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I422" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J422" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K422" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L422" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N422" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="19">
+        <v>45631.94915997685</v>
+      </c>
+      <c r="B423" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C423" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D423" s="20">
+        <v>2.0246218E7</v>
+      </c>
+      <c r="E423" s="20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F423" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="G423" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H423" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I423" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J423" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K423" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L423" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M423" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="16">
+        <v>45631.96276016204</v>
+      </c>
+      <c r="B424" s="17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C424" s="17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D424" s="17">
+        <v>2.0245201E7</v>
+      </c>
+      <c r="E424" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F424" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="G424" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H424" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I424" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J424" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K424" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L424" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N424" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="19">
+        <v>45631.96285315973</v>
+      </c>
+      <c r="B425" s="20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C425" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D425" s="20">
+        <v>2.0243529E7</v>
+      </c>
+      <c r="E425" s="20" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F425" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G425" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H425" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I425" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J425" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K425" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L425" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N425" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="16">
+        <v>45631.96342158565</v>
+      </c>
+      <c r="B426" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C426" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D426" s="17">
+        <v>2.0242327E7</v>
+      </c>
+      <c r="E426" s="17" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F426" s="18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G426" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H426" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I426" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J426" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K426" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L426" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M426" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="19">
+        <v>45632.09656672453</v>
+      </c>
+      <c r="B427" s="20" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C427" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D427" s="20">
+        <v>2.0242575E7</v>
+      </c>
+      <c r="E427" s="20" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F427" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="G427" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H427" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I427" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J427" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K427" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L427" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M427" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="16">
+        <v>45632.185653113425</v>
+      </c>
+      <c r="B428" s="17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C428" s="17" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D428" s="17">
+        <v>2.0246927E7</v>
+      </c>
+      <c r="E428" s="17" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F428" s="18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G428" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H428" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I428" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J428" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K428" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L428" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N428" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="19">
+        <v>45632.37928414352</v>
+      </c>
+      <c r="B429" s="20" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C429" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D429" s="20">
+        <v>2.018285E7</v>
+      </c>
+      <c r="E429" s="20" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F429" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="G429" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J429" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K429" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L429" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N429" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="16">
+        <v>45632.404226909726</v>
+      </c>
+      <c r="B430" s="17" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C430" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D430" s="17">
+        <v>2.0211059E7</v>
+      </c>
+      <c r="E430" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F430" s="18" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G430" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H430" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I430" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J430" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K430" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L430" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N430" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="19">
+        <v>45632.48416820602</v>
+      </c>
+      <c r="B431" s="20" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C431" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D431" s="20">
+        <v>2.023518E7</v>
+      </c>
+      <c r="E431" s="20" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F431" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="G431" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H431" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I431" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J431" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K431" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L431" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N431" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="16">
+        <v>45632.52519854167</v>
+      </c>
+      <c r="B432" s="17" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C432" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D432" s="17">
+        <v>2.0242109E7</v>
+      </c>
+      <c r="E432" s="17" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F432" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="G432" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H432" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I432" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J432" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K432" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L432" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N432" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="19">
+        <v>45632.52790927084</v>
+      </c>
+      <c r="B433" s="20" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C433" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D433" s="20">
+        <v>2.0227155E7</v>
+      </c>
+      <c r="E433" s="20" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F433" s="21" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G433" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H433" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I433" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J433" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K433" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L433" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M433" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="16">
+        <v>45632.55869071759</v>
+      </c>
+      <c r="B434" s="17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C434" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D434" s="17">
+        <v>2.024693E7</v>
+      </c>
+      <c r="E434" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F434" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G434" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H434" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I434" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J434" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K434" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L434" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M434" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="19">
+        <v>45632.590068749996</v>
+      </c>
+      <c r="B435" s="20" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C435" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D435" s="20">
+        <v>2.0171035E7</v>
+      </c>
+      <c r="E435" s="20" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F435" s="21" t="s">
+        <v>964</v>
+      </c>
+      <c r="G435" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H435" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I435" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J435" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K435" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L435" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M435" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="16">
+        <v>45632.628264548606</v>
+      </c>
+      <c r="B436" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C436" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D436" s="17">
+        <v>2.0243257E7</v>
+      </c>
+      <c r="E436" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F436" s="18" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G436" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H436" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I436" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J436" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K436" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L436" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N436" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="19">
+        <v>45632.63599365741</v>
+      </c>
+      <c r="B437" s="20" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C437" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D437" s="20">
+        <v>2.024173E7</v>
+      </c>
+      <c r="E437" s="20" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F437" s="21" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G437" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I437" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J437" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K437" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L437" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M437" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="16">
+        <v>45632.652066469906</v>
+      </c>
+      <c r="B438" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C438" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D438" s="17">
+        <v>2.0205139E7</v>
+      </c>
+      <c r="E438" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F438" s="18" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G438" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H438" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I438" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J438" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K438" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L438" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N438" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="19">
+        <v>45632.6587875463</v>
+      </c>
+      <c r="B439" s="20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C439" s="20" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D439" s="20">
+        <v>2.0195258E7</v>
+      </c>
+      <c r="E439" s="20" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F439" s="21" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G439" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H439" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I439" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J439" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K439" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L439" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N439" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="16">
+        <v>45632.66118866898</v>
+      </c>
+      <c r="B440" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C440" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D440" s="17">
+        <v>2.0243038E7</v>
+      </c>
+      <c r="E440" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F440" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="G440" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J440" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K440" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L440" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M440" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="19">
+        <v>45632.69043475694</v>
+      </c>
+      <c r="B441" s="20" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C441" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D441" s="20">
+        <v>2.0202925E7</v>
+      </c>
+      <c r="E441" s="20" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F441" s="21" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G441" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H441" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I441" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J441" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K441" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L441" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M441" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="16">
+        <v>45632.69641388889</v>
+      </c>
+      <c r="B442" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C442" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D442" s="17">
+        <v>2.0215262E7</v>
+      </c>
+      <c r="E442" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F442" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="G442" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H442" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I442" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J442" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K442" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L442" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M442" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="19">
+        <v>45632.78381474537</v>
+      </c>
+      <c r="B443" s="20" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C443" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D443" s="20">
+        <v>2.0241038E7</v>
+      </c>
+      <c r="E443" s="20" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F443" s="21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G443" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H443" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I443" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J443" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K443" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L443" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M443" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="16">
+        <v>45632.82952118055</v>
+      </c>
+      <c r="B444" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C444" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D444" s="17">
+        <v>2.0223249E7</v>
+      </c>
+      <c r="E444" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F444" s="18" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G444" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H444" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I444" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J444" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K444" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L444" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N444" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="19">
+        <v>45632.852723993055</v>
+      </c>
+      <c r="B445" s="20" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C445" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D445" s="20">
+        <v>2.0246741E7</v>
+      </c>
+      <c r="E445" s="20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F445" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G445" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H445" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I445" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J445" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K445" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L445" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N445" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="24">
+        <v>45632.864435625</v>
+      </c>
+      <c r="B446" s="25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C446" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D446" s="25">
+        <v>2.0233605E7</v>
+      </c>
+      <c r="E446" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F446" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="G446" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H446" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I446" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J446" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K446" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L446" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N446" s="27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
